--- a/dtpu_configurations/only_integer16/50mhz/mxu_8x8/timing.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_8x8/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>5.929718971252441</v>
+        <v>5.17543888092041</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.031865399330854416</v>
+        <v>0.01674327254295349</v>
       </c>
     </row>
   </sheetData>
